--- a/Project timeline.xlsx
+++ b/Project timeline.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TimKuo/Documents/TheGreatGrapeProblem/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19140" windowHeight="7840"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Expose</t>
   </si>
@@ -64,13 +74,22 @@
   </si>
   <si>
     <t>Project Presentation</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,12 +98,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -101,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,24 +138,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,146 +473,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M18"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="13" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="1" customWidth="1"/>
+    <col min="3" max="13" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
+    <row r="1" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C2" s="1">
+    <row r="2" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="7">
         <v>42835</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="7">
         <v>42842</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="7">
         <v>42849</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="7">
         <v>42856</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="7">
         <v>42863</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="7">
         <v>42870</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="7">
         <v>42877</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3" s="7">
         <v>42884</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K3" s="7">
         <v>42891</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L3" s="7">
         <v>42898</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M3" s="7">
         <v>42905</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M19" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -579,7 +650,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -591,7 +662,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project timeline.xlsx
+++ b/Project timeline.xlsx
@@ -31,45 +31,15 @@
     <t>Expose</t>
   </si>
   <si>
-    <t>Prepare research question</t>
-  </si>
-  <si>
     <t>START DATE</t>
   </si>
   <si>
     <t>Model the system</t>
   </si>
   <si>
-    <t>UML-diagrams</t>
-  </si>
-  <si>
-    <t>Research State of the art</t>
-  </si>
-  <si>
-    <t>Project structure</t>
-  </si>
-  <si>
-    <t>Project timeline</t>
-  </si>
-  <si>
     <t>Implementation</t>
   </si>
   <si>
-    <t>Set up platform</t>
-  </si>
-  <si>
-    <t>Implement the world</t>
-  </si>
-  <si>
-    <t>Implement a single car</t>
-  </si>
-  <si>
-    <t>Test run</t>
-  </si>
-  <si>
-    <t>Expand the population</t>
-  </si>
-  <si>
     <t>Project Report</t>
   </si>
   <si>
@@ -83,12 +53,45 @@
   </si>
   <si>
     <t>June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Prepare research question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Project timeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Research State of the art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Project structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UML-diagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set up platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Implement the world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Implement a single car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Test run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Expand the population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="m/d;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,15 +108,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Garamond"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Garamond"/>
     </font>
   </fonts>
   <fills count="3">
@@ -130,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -153,25 +156,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,171 +600,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M19"/>
+  <dimension ref="B1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" style="1" customWidth="1"/>
-    <col min="3" max="13" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="8.33203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="19">
+        <v>42835</v>
+      </c>
+      <c r="D3" s="19">
+        <v>42842</v>
+      </c>
+      <c r="E3" s="19">
+        <v>42849</v>
+      </c>
+      <c r="F3" s="19">
+        <v>42856</v>
+      </c>
+      <c r="G3" s="19">
+        <v>42863</v>
+      </c>
+      <c r="H3" s="19">
+        <v>42870</v>
+      </c>
+      <c r="I3" s="19">
+        <v>42877</v>
+      </c>
+      <c r="J3" s="19">
+        <v>42884</v>
+      </c>
+      <c r="K3" s="19">
+        <v>42891</v>
+      </c>
+      <c r="L3" s="19">
+        <v>42898</v>
+      </c>
+      <c r="M3" s="19">
+        <v>42905</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7">
-        <v>42835</v>
-      </c>
-      <c r="D3" s="7">
-        <v>42842</v>
-      </c>
-      <c r="E3" s="7">
-        <v>42849</v>
-      </c>
-      <c r="F3" s="7">
-        <v>42856</v>
-      </c>
-      <c r="G3" s="7">
-        <v>42863</v>
-      </c>
-      <c r="H3" s="7">
-        <v>42870</v>
-      </c>
-      <c r="I3" s="7">
-        <v>42877</v>
-      </c>
-      <c r="J3" s="7">
-        <v>42884</v>
-      </c>
-      <c r="K3" s="7">
-        <v>42891</v>
-      </c>
-      <c r="L3" s="7">
-        <v>42898</v>
-      </c>
-      <c r="M3" s="7">
-        <v>42905</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="2"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Project timeline.xlsx
+++ b/Project timeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Expose</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>START DATE</t>
   </si>
@@ -55,34 +52,99 @@
     <t>June</t>
   </si>
   <si>
-    <t xml:space="preserve">    Prepare research question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Project timeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Research State of the art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Project structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    UML-diagrams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Set up platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Implement the world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Implement a single car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Test run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Expand the population</t>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Visualization</t>
+  </si>
+  <si>
+    <t>ARINDAM</t>
+  </si>
+  <si>
+    <t>ANOSHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Implementing Basic Structure</t>
+  </si>
+  <si>
+    <t>TIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TEST &amp; REVISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Test in Qt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UML/ Class Diagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Writing Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Implement the World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Implement a Single Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Implement Multiple Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Add in Behaviors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Expand the Population</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Quiz/ Exams</t>
+  </si>
+  <si>
+    <t>To Be Done</t>
+  </si>
+  <si>
+    <t>Current Time</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set Working Time/ GitHub</t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Prepare Research Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Project Timeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Research State of the Art</t>
+  </si>
+  <si>
+    <t>Gantt Chart and Task Distribution</t>
+  </si>
+  <si>
+    <t>Remarks:
+- Programming Quiz in mid June
+- C++ Tutorial is biweekly
+- Book recommended: Nature of Code
+- Office Hour
+  Hartanto: Thursday 10:00-11:30 / Struck:     ?</t>
   </si>
 </sst>
 </file>
@@ -90,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,18 +170,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Garamond"/>
+      <name val="Helvetica Light"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Garamond"/>
+      <name val="Helvetica Light"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Light"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Helvetica Light"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,12 +229,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="2" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFC4BD97"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -262,45 +393,236 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,328 +922,918 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M18"/>
+  <dimension ref="B1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="1" customWidth="1"/>
-    <col min="3" max="13" width="8.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="8.33203125" style="1" customWidth="1"/>
+    <col min="20" max="22" width="13.1640625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="54"/>
+    </row>
+    <row r="3" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="57"/>
+    </row>
+    <row r="4" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="8"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="22">
+        <v>42835</v>
+      </c>
+      <c r="D5" s="22">
+        <v>42842</v>
+      </c>
+      <c r="E5" s="22">
+        <v>42849</v>
+      </c>
+      <c r="F5" s="22">
+        <v>42856</v>
+      </c>
+      <c r="G5" s="23">
+        <v>42863</v>
+      </c>
+      <c r="H5" s="24">
+        <v>42870</v>
+      </c>
+      <c r="I5" s="25">
+        <v>42877</v>
+      </c>
+      <c r="J5" s="22">
+        <v>42884</v>
+      </c>
+      <c r="K5" s="22">
+        <v>42891</v>
+      </c>
+      <c r="L5" s="22">
+        <v>42898</v>
+      </c>
+      <c r="M5" s="22">
+        <v>42905</v>
+      </c>
+      <c r="N5" s="22">
+        <v>42912</v>
+      </c>
+      <c r="O5" s="22">
+        <v>42919</v>
+      </c>
+      <c r="P5" s="22">
+        <v>42926</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>42933</v>
+      </c>
+      <c r="R5" s="22">
+        <v>42940</v>
+      </c>
+      <c r="S5" s="22">
+        <v>42947</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+    </row>
+    <row r="6" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row r="7" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="19">
-        <v>42835</v>
-      </c>
-      <c r="D3" s="19">
-        <v>42842</v>
-      </c>
-      <c r="E3" s="19">
-        <v>42849</v>
-      </c>
-      <c r="F3" s="19">
-        <v>42856</v>
-      </c>
-      <c r="G3" s="19">
-        <v>42863</v>
-      </c>
-      <c r="H3" s="19">
-        <v>42870</v>
-      </c>
-      <c r="I3" s="19">
-        <v>42877</v>
-      </c>
-      <c r="J3" s="19">
-        <v>42884</v>
-      </c>
-      <c r="K3" s="19">
-        <v>42891</v>
-      </c>
-      <c r="L3" s="19">
-        <v>42898</v>
-      </c>
-      <c r="M3" s="19">
-        <v>42905</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="29"/>
+    </row>
+    <row r="12" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+    </row>
+    <row r="13" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+    </row>
+    <row r="15" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="41"/>
+    </row>
+    <row r="16" spans="2:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+    </row>
+    <row r="17" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+    </row>
+    <row r="21" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="29"/>
+    </row>
+    <row r="22" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+    </row>
+    <row r="23" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="46"/>
+    </row>
+    <row r="24" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+    </row>
+    <row r="25" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="26" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
-    </row>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="46"/>
+    </row>
+    <row r="27" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+    </row>
+    <row r="28" spans="2:22" s="3" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="2:22" s="3" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="C29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="J29" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="59"/>
+    </row>
+    <row r="30" spans="2:22" s="3" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="35"/>
+      <c r="C30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="62"/>
+    </row>
+    <row r="31" spans="2:22" s="3" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="37"/>
+      <c r="C31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="62"/>
+    </row>
+    <row r="32" spans="2:22" s="3" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="36"/>
+      <c r="C32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="62"/>
+    </row>
+    <row r="33" spans="2:22" s="3" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="49"/>
+      <c r="C33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="65"/>
+    </row>
+    <row r="34" spans="2:22" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="2:22" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="2:22" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="2:22" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:22" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="2:22" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="2:22" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="2:22" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="2:22" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="2:22" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:22" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:22" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:22" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:22" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="21">
+    <mergeCell ref="J29:V33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B2:V3"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="C21:V21"/>
+    <mergeCell ref="C11:V11"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="C6:V6"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:S4"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="22" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
